--- a/Refactoring_data.xlsx
+++ b/Refactoring_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoa-my.sharepoint.com/personal/mli840_uoa_auckland_ac_nz/Documents/module-5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mli840/Desktop/Multiagent_Refactoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{E73AFE92-F396-A843-9B46-BF6C3EEDC9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85F8AAB4-B6D3-2D46-B8FB-2D06CDBBD683}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750899CF-13DD-EB42-93FC-9D4746FB083D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{C0CD75FB-DAFE-444B-9B23-C6AF4B50E0F1}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20280" xr2:uid="{C0CD75FB-DAFE-444B-9B23-C6AF4B50E0F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
   <si>
     <t>RRS</t>
   </si>
@@ -147,6 +147,114 @@
   </si>
   <si>
     <t>Buyers can login</t>
+  </si>
+  <si>
+    <t>elearning_platform</t>
+  </si>
+  <si>
+    <t>After completing a course, a student can submit feedback that will be reviewed</t>
+  </si>
+  <si>
+    <t>A student can request a certificate, which is issued by the platform.</t>
+  </si>
+  <si>
+    <t>Instructors can also report platform issues to the support center.</t>
+  </si>
+  <si>
+    <t>FinanceERP</t>
+  </si>
+  <si>
+    <t>fooddelivery</t>
+  </si>
+  <si>
+    <t>HRERP</t>
+  </si>
+  <si>
+    <t>HR evaluates interns separately.</t>
+  </si>
+  <si>
+    <t>UntilitiesServicesERP</t>
+  </si>
+  <si>
+    <t>Admin can review instructors’ performance.</t>
+  </si>
+  <si>
+    <t>After  payroll is  recorded in the HRLedger, a payslip should be generated.</t>
+  </si>
+  <si>
+    <t>After the tax department receives a taxpayer submission, the signed receipt should be generated.</t>
+  </si>
+  <si>
+    <t>After a loan is evaluated by Credit check, a result should be stored in a  loan record database</t>
+  </si>
+  <si>
+    <t>After the compliance engine completes its analysis, the report should be stored in a database.</t>
+  </si>
+  <si>
+    <t>After the staging result is logged by the EventLogger, the log should be further verified by a IT Secutity Team.</t>
+  </si>
+  <si>
+    <t>After an incident is resolved by the handler, a incident report can be generated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer can log in through a authorization portal.
+</t>
+  </si>
+  <si>
+    <t>Restaurants push daily sales data to CustomerUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue report can be generated after issue is handled by support center.
+</t>
+  </si>
+  <si>
+    <t>After a developer is accpted,  a background check is initialized.</t>
+  </si>
+  <si>
+    <t>HR can login the system using authorization portal</t>
+  </si>
+  <si>
+    <t>After HR system approves the promotion, a promotion summary should be generated.</t>
+  </si>
+  <si>
+    <t>Transfer decisions should be recorded in a central HR database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After CEO assessed the report, the report can be stored in a report database.
+</t>
+  </si>
+  <si>
+    <t>After the service office evaluates a quote, store the approved quote in a Database.</t>
+  </si>
+  <si>
+    <t>After the contract is signed by legal department, generate a contract summary.</t>
+  </si>
+  <si>
+    <t>After registration of asset, trigger installation tracking.</t>
+  </si>
+  <si>
+    <t>After diagnostics are completed, store the report in an analytics archive.</t>
+  </si>
+  <si>
+    <t>After a auditUnit finish the inspection, the report should be sent to a regulatory system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After alert center responded, the corresponding tasks are assigned to a alert handling team. </t>
+  </si>
+  <si>
+    <t>After AnalyticsCenter evaluates, maintenance service is activated.</t>
+  </si>
+  <si>
+    <t>After Support Center diagnoses an issue, the issue is sent to AnalyticsCenter</t>
+  </si>
+  <si>
+    <t>After DataAnalytics analyzed, the data is forwared to Maintenance Team</t>
+  </si>
+  <si>
+    <t>After RestaurantUI received an order, AIassistant is activated</t>
+  </si>
+  <si>
+    <t>After Delivery is picked up,  AITripPlanner is activated.</t>
   </si>
 </sst>
 </file>
@@ -531,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C371F6-A240-6243-8161-B1D61DFEF972}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.2"/>
@@ -792,6 +900,246 @@
         <v>36</v>
       </c>
     </row>
+    <row r="32" spans="1:2" ht="100" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="50" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="100" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="125" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="100" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="125" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="100" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="100" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="100" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="50" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="50" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="100" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="100" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="50" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="100" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="125" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="50" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="100" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="100" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="100" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="125" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="100" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
